--- a/Standard StaR-Eau/dictionnaires de donnees/Liste_materiaux.xlsx
+++ b/Standard StaR-Eau/dictionnaires de donnees/Liste_materiaux.xlsx
@@ -1,84 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Liste Star-Eau" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="famille materiau" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LISTES EXISTANTES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Liste Star-Eau" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="famille materiau" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="LISTES EXISTANTES" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Liste Star-Eau'!$A$1:$H$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Liste Star-Eau'!$A$1:$H$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Liste Star-Eau'!$A$1:$H$61</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>valeur</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>categorie</t>
-  </si>
-  <si>
-    <t>star-dt</t>
-  </si>
-  <si>
-    <t>ref13508</t>
-  </si>
-  <si>
-    <t>VOTE</t>
-  </si>
-  <si>
-    <t>acier</t>
-  </si>
-  <si>
-    <t>Acier</t>
-  </si>
-  <si>
-    <t>métal</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-  <si>
-    <t>ACDAP</t>
-  </si>
-  <si>
-    <t>OUI</t>
-  </si>
-  <si>
-    <t>amci</t>
-  </si>
-  <si>
-    <t>Amiante-Ciment</t>
-  </si>
-  <si>
-    <t>Amiante-ciment</t>
-  </si>
-  <si>
-    <t>composite</t>
-  </si>
-  <si>
-    <t>asbestos</t>
-  </si>
-  <si>
-    <t>ACDAA</t>
-  </si>
-  <si>
-    <t>ba</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="364">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">star-dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref13508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">métal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiante-Ciment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiante-ciment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asbestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba</t>
   </si>
   <si>
     <t xml:space="preserve">Béton Armé</t>
@@ -87,70 +93,70 @@
     <t xml:space="preserve">béton armé</t>
   </si>
   <si>
-    <t>assemblage</t>
-  </si>
-  <si>
-    <t>ACDAH</t>
-  </si>
-  <si>
-    <t>beton</t>
-  </si>
-  <si>
-    <t>Béton</t>
+    <t xml:space="preserve">assemblage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Béton</t>
   </si>
   <si>
     <t xml:space="preserve">béton inconnu</t>
   </si>
   <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t>ACDAG</t>
-  </si>
-  <si>
-    <t>bitum</t>
-  </si>
-  <si>
-    <t>Bitume</t>
-  </si>
-  <si>
-    <t>bitume</t>
-  </si>
-  <si>
-    <t>ACDAB</t>
-  </si>
-  <si>
-    <t>NON</t>
-  </si>
-  <si>
-    <t>bois</t>
-  </si>
-  <si>
-    <t>Bois</t>
-  </si>
-  <si>
-    <t>autre</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>briq</t>
-  </si>
-  <si>
-    <t>Briquetage</t>
-  </si>
-  <si>
-    <t>briquetage</t>
-  </si>
-  <si>
-    <t>ACDAD</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>btat</t>
+    <t xml:space="preserve">concrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">briq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Briquetage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">briquetage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btat</t>
   </si>
   <si>
     <t xml:space="preserve">Béton Âme Tôle</t>
@@ -159,7 +165,7 @@
     <t xml:space="preserve">béton âme tôle</t>
   </si>
   <si>
-    <t>btcp</t>
+    <t xml:space="preserve">btcp</t>
   </si>
   <si>
     <t xml:space="preserve">Béton Composite</t>
@@ -168,10 +174,10 @@
     <t xml:space="preserve">Béton composite</t>
   </si>
   <si>
-    <t>compositeConcrete</t>
-  </si>
-  <si>
-    <t>btfb</t>
+    <t xml:space="preserve">compositeConcrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btfb</t>
   </si>
   <si>
     <t xml:space="preserve">Béton Fibré</t>
@@ -180,10 +186,10 @@
     <t xml:space="preserve">béton fibré</t>
   </si>
   <si>
-    <t>reinforcedConcrete</t>
-  </si>
-  <si>
-    <t>btna</t>
+    <t xml:space="preserve">reinforcedConcrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btna</t>
   </si>
   <si>
     <t xml:space="preserve">Béton Non Armé</t>
@@ -192,7 +198,7 @@
     <t xml:space="preserve">béton non armé</t>
   </si>
   <si>
-    <t>btpc</t>
+    <t xml:space="preserve">btpc</t>
   </si>
   <si>
     <t xml:space="preserve">Béton Précontraint</t>
@@ -201,10 +207,10 @@
     <t xml:space="preserve">Béton précontraint</t>
   </si>
   <si>
-    <t>prestressedReinforcedConcrete</t>
-  </si>
-  <si>
-    <t>btpj</t>
+    <t xml:space="preserve">prestressedReinforcedConcrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btpj</t>
   </si>
   <si>
     <t xml:space="preserve">Béton Projeté</t>
@@ -213,34 +219,34 @@
     <t xml:space="preserve">béton projeté</t>
   </si>
   <si>
-    <t>ACDAI</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>Cuivre</t>
-  </si>
-  <si>
-    <t>cuivre</t>
-  </si>
-  <si>
-    <t>epx</t>
-  </si>
-  <si>
-    <t>Époxy</t>
-  </si>
-  <si>
-    <t>époxy</t>
-  </si>
-  <si>
-    <t>plastique</t>
-  </si>
-  <si>
-    <t>ACDAT</t>
-  </si>
-  <si>
-    <t>fbpj</t>
+    <t xml:space="preserve">ACDAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuivre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuivre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Époxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">époxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbpj</t>
   </si>
   <si>
     <t xml:space="preserve">Fibre Projetées</t>
@@ -249,10 +255,10 @@
     <t xml:space="preserve">fibre projetées</t>
   </si>
   <si>
-    <t>ACDAC</t>
-  </si>
-  <si>
-    <t>fbro</t>
+    <t xml:space="preserve">ACDAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbro</t>
   </si>
   <si>
     <t xml:space="preserve">Fibres Ciment</t>
@@ -261,10 +267,13 @@
     <t xml:space="preserve">fibres ciment ou fibro-ciment</t>
   </si>
   <si>
-    <t>ACDAK</t>
-  </si>
-  <si>
-    <t>fbvr</t>
+    <t xml:space="preserve">ACDAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vote : Oui = à conserver ; Non = à supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fbvr</t>
   </si>
   <si>
     <t xml:space="preserve">Fibre De Verre</t>
@@ -276,7 +285,7 @@
     <t xml:space="preserve">XXX = ceux ni oui ni non, à conserver ?</t>
   </si>
   <si>
-    <t>fd</t>
+    <t xml:space="preserve">fd</t>
   </si>
   <si>
     <t xml:space="preserve">Fonte Ductile</t>
@@ -285,13 +294,13 @@
     <t xml:space="preserve">fonte ductile</t>
   </si>
   <si>
-    <t>ACDAO</t>
+    <t xml:space="preserve">ACDAO</t>
   </si>
   <si>
     <t xml:space="preserve">Faut-il conserver ceux en vert ?</t>
   </si>
   <si>
-    <t>fg</t>
+    <t xml:space="preserve">fg</t>
   </si>
   <si>
     <t xml:space="preserve">Fonte Grise</t>
@@ -300,55 +309,55 @@
     <t xml:space="preserve">fonte grise</t>
   </si>
   <si>
-    <t>ACDAN</t>
-  </si>
-  <si>
-    <t>fonte</t>
-  </si>
-  <si>
-    <t>Fonte</t>
-  </si>
-  <si>
-    <t>castIron</t>
-  </si>
-  <si>
-    <t>ACDAM</t>
-  </si>
-  <si>
-    <t>gres</t>
-  </si>
-  <si>
-    <t>Grès</t>
-  </si>
-  <si>
-    <t>grès</t>
-  </si>
-  <si>
-    <t>ACDAE</t>
-  </si>
-  <si>
-    <t>inox</t>
-  </si>
-  <si>
-    <t>Inox</t>
+    <t xml:space="preserve">ACDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">castIron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inox</t>
   </si>
   <si>
     <t xml:space="preserve">Acier inoxydable</t>
   </si>
   <si>
-    <t>mac</t>
-  </si>
-  <si>
-    <t>Maçonné</t>
-  </si>
-  <si>
-    <t>maçonné</t>
-  </si>
-  <si>
-    <t>masonry</t>
-  </si>
-  <si>
-    <t>maca</t>
+    <t xml:space="preserve">mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maçonné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maçonné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masonry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maca</t>
   </si>
   <si>
     <t xml:space="preserve">Maçonnerie Appareillée</t>
@@ -357,10 +366,10 @@
     <t xml:space="preserve">maçonnerie appareillée</t>
   </si>
   <si>
-    <t>ACDAR</t>
-  </si>
-  <si>
-    <t>macna</t>
+    <t xml:space="preserve">ACDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macna</t>
   </si>
   <si>
     <t xml:space="preserve">Maçonnerie Non Appareillée</t>
@@ -369,10 +378,10 @@
     <t xml:space="preserve">maçonnerie non appareillée</t>
   </si>
   <si>
-    <t>ACDAS</t>
-  </si>
-  <si>
-    <t>metal</t>
+    <t xml:space="preserve">ACDAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal</t>
   </si>
   <si>
     <t xml:space="preserve">Métal Inconnu</t>
@@ -381,19 +390,19 @@
     <t xml:space="preserve">type non identifié fer ou acier</t>
   </si>
   <si>
-    <t>ACDAQ</t>
-  </si>
-  <si>
-    <t>meul</t>
-  </si>
-  <si>
-    <t>Meulière</t>
+    <t xml:space="preserve">ACDAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meulière</t>
   </si>
   <si>
     <t xml:space="preserve">pierre meulière</t>
   </si>
   <si>
-    <t>mrtc</t>
+    <t xml:space="preserve">mrtc</t>
   </si>
   <si>
     <t xml:space="preserve">Mortier De Ciment</t>
@@ -402,64 +411,64 @@
     <t xml:space="preserve">mortier de ciment</t>
   </si>
   <si>
-    <t>ACDAF</t>
-  </si>
-  <si>
-    <t>pb</t>
-  </si>
-  <si>
-    <t>Plomb</t>
-  </si>
-  <si>
-    <t>plomb</t>
-  </si>
-  <si>
-    <t>pbu</t>
+    <t xml:space="preserve">ACDAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pbu</t>
   </si>
   <si>
     <t xml:space="preserve">Polybutylène (PB)</t>
   </si>
   <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>Polyéthylène</t>
-  </si>
-  <si>
-    <t>polyéthylène</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>ACDAV</t>
-  </si>
-  <si>
-    <t>pebd</t>
-  </si>
-  <si>
-    <t>Pebd</t>
-  </si>
-  <si>
-    <t>pehda</t>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyéthylène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyéthylène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pebd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pebd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pehda</t>
   </si>
   <si>
     <t xml:space="preserve">Pehd Annelé</t>
   </si>
   <si>
-    <t>pehd</t>
-  </si>
-  <si>
-    <t>Pehd</t>
+    <t xml:space="preserve">pehd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pehd</t>
   </si>
   <si>
     <t xml:space="preserve">Pehd lisse</t>
   </si>
   <si>
-    <t>pex</t>
+    <t xml:space="preserve">pex</t>
   </si>
   <si>
     <t xml:space="preserve">Polyéthylène Réticulé</t>
@@ -468,10 +477,10 @@
     <t xml:space="preserve">polyéthylène réticulé à haute densité (PEX)</t>
   </si>
   <si>
-    <t>PEX</t>
-  </si>
-  <si>
-    <t>plast</t>
+    <t xml:space="preserve">PEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plast</t>
   </si>
   <si>
     <t xml:space="preserve">Plastique Inconnu</t>
@@ -480,37 +489,37 @@
     <t xml:space="preserve">type non identifié de plastiques</t>
   </si>
   <si>
-    <t>ACDAY</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>Polypropylène</t>
-  </si>
-  <si>
-    <t>polypropylène</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>ACDAW</t>
-  </si>
-  <si>
-    <t>ppa</t>
+    <t xml:space="preserve">ACDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polypropylène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polypropylène</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppa</t>
   </si>
   <si>
     <t xml:space="preserve">Polypropylène Annelé</t>
   </si>
   <si>
-    <t>ppl</t>
+    <t xml:space="preserve">ppl</t>
   </si>
   <si>
     <t xml:space="preserve">Polypropylène Lisse</t>
   </si>
   <si>
-    <t>prv</t>
+    <t xml:space="preserve">prv</t>
   </si>
   <si>
     <t xml:space="preserve">Plastiques Renforcé Fibres</t>
@@ -519,37 +528,37 @@
     <t xml:space="preserve">plastiques renforcé fibres</t>
   </si>
   <si>
-    <t>FRP</t>
-  </si>
-  <si>
-    <t>ACDAL</t>
-  </si>
-  <si>
-    <t>prva</t>
+    <t xml:space="preserve">FRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prva</t>
   </si>
   <si>
     <t xml:space="preserve">Prv A</t>
   </si>
   <si>
-    <t>prvb</t>
+    <t xml:space="preserve">prvb</t>
   </si>
   <si>
     <t xml:space="preserve">Prv B</t>
   </si>
   <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>Polyester</t>
-  </si>
-  <si>
-    <t>polyester</t>
-  </si>
-  <si>
-    <t>ACDAU</t>
-  </si>
-  <si>
-    <t>pvcbo</t>
+    <t xml:space="preserve">pu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvcbo</t>
   </si>
   <si>
     <t xml:space="preserve">Pvc Bi-orienté</t>
@@ -558,7 +567,7 @@
     <t xml:space="preserve">polychlorure de vinyle bi-orienté</t>
   </si>
   <si>
-    <t>pvcc</t>
+    <t xml:space="preserve">pvcc</t>
   </si>
   <si>
     <t xml:space="preserve">Pvc C</t>
@@ -567,10 +576,10 @@
     <t xml:space="preserve">polychlorure de vinyle type C</t>
   </si>
   <si>
-    <t>CPVC</t>
-  </si>
-  <si>
-    <t>pvccvm</t>
+    <t xml:space="preserve">CPVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvccvm</t>
   </si>
   <si>
     <t xml:space="preserve">Pvc Ancien</t>
@@ -579,19 +588,19 @@
     <t xml:space="preserve">polychlorure de vinyle posés avant 1980</t>
   </si>
   <si>
-    <t>pvcu</t>
-  </si>
-  <si>
-    <t>Pvc-U</t>
-  </si>
-  <si>
-    <t>PVC-U</t>
-  </si>
-  <si>
-    <t>ACDAX</t>
-  </si>
-  <si>
-    <t>pvcua</t>
+    <t xml:space="preserve">pvcu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pvc-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVC-U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pvcua</t>
   </si>
   <si>
     <t xml:space="preserve">Pvc U Annelé</t>
@@ -600,7 +609,7 @@
     <t xml:space="preserve">polychlorure de vinyle rigide tuyaux annelés</t>
   </si>
   <si>
-    <t>pvcul</t>
+    <t xml:space="preserve">pvcul</t>
   </si>
   <si>
     <t xml:space="preserve">Pvc U</t>
@@ -609,10 +618,10 @@
     <t xml:space="preserve">polychlorure de vinyle rigide tuyaux lisses</t>
   </si>
   <si>
-    <t>PVC</t>
-  </si>
-  <si>
-    <t>rpmp</t>
+    <t xml:space="preserve">PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpmp</t>
   </si>
   <si>
     <t xml:space="preserve">Mortier Renforcé</t>
@@ -621,10 +630,10 @@
     <t xml:space="preserve">mortier renforcé de polymères(RPMP)</t>
   </si>
   <si>
-    <t>RPMP</t>
-  </si>
-  <si>
-    <t>sgbt</t>
+    <t xml:space="preserve">RPMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgbt</t>
   </si>
   <si>
     <t xml:space="preserve">Segment De Béton</t>
@@ -633,10 +642,10 @@
     <t xml:space="preserve">segment de béton</t>
   </si>
   <si>
-    <t>ACDAJ</t>
-  </si>
-  <si>
-    <t>tole</t>
+    <t xml:space="preserve">ACDAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tole</t>
   </si>
   <si>
     <t xml:space="preserve">Tôle Galvanisée</t>
@@ -645,28 +654,28 @@
     <t xml:space="preserve">tôle galvanisée</t>
   </si>
   <si>
-    <t>galvanizedSteel</t>
-  </si>
-  <si>
-    <t>trct</t>
+    <t xml:space="preserve">galvanizedSteel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trct</t>
   </si>
   <si>
     <t xml:space="preserve">Terre Cuite</t>
   </si>
   <si>
-    <t>terracota</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>ACDZ</t>
-  </si>
-  <si>
-    <t>nr</t>
+    <t xml:space="preserve">terracota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr</t>
   </si>
   <si>
     <t xml:space="preserve">Non Identifié</t>
@@ -675,43 +684,43 @@
     <t xml:space="preserve">non identifié</t>
   </si>
   <si>
-    <t>ACDAZ</t>
-  </si>
-  <si>
-    <t>non_renseigne</t>
-  </si>
-  <si>
-    <t>abs</t>
+    <t xml:space="preserve">ACDAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non_renseigne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs</t>
   </si>
   <si>
     <t xml:space="preserve">Acrylonitrile butadiene styrene (ABS)</t>
   </si>
   <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>acnr</t>
+    <t xml:space="preserve">ABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acnr</t>
   </si>
   <si>
     <t xml:space="preserve">acier noir</t>
   </si>
   <si>
-    <t>blackIron</t>
-  </si>
-  <si>
-    <t>acox</t>
+    <t xml:space="preserve">blackIron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acox</t>
   </si>
   <si>
     <t xml:space="preserve">acier avec couche oxydé de protection</t>
   </si>
   <si>
-    <t>blackSteel</t>
-  </si>
-  <si>
-    <t>clay</t>
-  </si>
-  <si>
-    <t>Argile</t>
+    <t xml:space="preserve">blackSteel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argile</t>
   </si>
   <si>
     <t xml:space="preserve">famille de matériau</t>
@@ -744,25 +753,25 @@
     <t xml:space="preserve">Guide gestion patrimoniale ASTEE</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>Définition</t>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définition</t>
   </si>
   <si>
     <t xml:space="preserve">matériau amiante ciment</t>
   </si>
   <si>
-    <t>Indéterminé</t>
+    <t xml:space="preserve">Indéterminé</t>
   </si>
   <si>
     <t xml:space="preserve">Canalisation composée de tuyaux dont le matériau est inconnu</t>
   </si>
   <si>
-    <t>amiante</t>
+    <t xml:space="preserve">amiante</t>
   </si>
   <si>
     <t xml:space="preserve">matériau bitume</t>
@@ -807,7 +816,7 @@
     <t xml:space="preserve">Canalisation composée de tuyaux de béton armé</t>
   </si>
   <si>
-    <t>argile</t>
+    <t xml:space="preserve">argile</t>
   </si>
   <si>
     <t xml:space="preserve">matériau mortier de ciment</t>
@@ -837,7 +846,7 @@
     <t xml:space="preserve">Canalisation composée de tuyaux de béton non armé</t>
   </si>
   <si>
-    <t>béton</t>
+    <t xml:space="preserve">béton</t>
   </si>
   <si>
     <t xml:space="preserve">matériau béton armé</t>
@@ -849,13 +858,13 @@
     <t xml:space="preserve">Canalisation composée de tuyaux de cuivre</t>
   </si>
   <si>
-    <t>PVCC</t>
+    <t xml:space="preserve">PVCC</t>
   </si>
   <si>
     <t xml:space="preserve">matériau béton projeté</t>
   </si>
   <si>
-    <t>PEBD</t>
+    <t xml:space="preserve">PEBD</t>
   </si>
   <si>
     <t xml:space="preserve">Fibre ciment</t>
@@ -870,7 +879,7 @@
     <t xml:space="preserve">matériau segment de béton</t>
   </si>
   <si>
-    <t>PEHD</t>
+    <t xml:space="preserve">PEHD</t>
   </si>
   <si>
     <t xml:space="preserve">Fibre de verre</t>
@@ -888,13 +897,13 @@
     <t xml:space="preserve">PVC cvm</t>
   </si>
   <si>
-    <t>Fibrociment</t>
+    <t xml:space="preserve">Fibrociment</t>
   </si>
   <si>
     <t xml:space="preserve">Canalisation composée de tuyaux de fibrociment</t>
   </si>
   <si>
-    <t>maçonnerie</t>
+    <t xml:space="preserve">maçonnerie</t>
   </si>
   <si>
     <t xml:space="preserve">matériau plastiques renforcé fibres</t>
@@ -948,7 +957,7 @@
     <t xml:space="preserve">matériau type non identifié fer ou acier</t>
   </si>
   <si>
-    <t>Autres</t>
+    <t xml:space="preserve">Autres</t>
   </si>
   <si>
     <t xml:space="preserve">Canalisation composée de tuyaux de polyéthylène basse densité</t>
@@ -960,7 +969,7 @@
     <t xml:space="preserve">matériau maçonnerie appareillée</t>
   </si>
   <si>
-    <t>Inconnu</t>
+    <t xml:space="preserve">Inconnu</t>
   </si>
   <si>
     <t xml:space="preserve">PEHD annelé</t>
@@ -1113,60 +1122,96 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <name val="Liberation Sans1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Sans1"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color indexed="2"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color indexed="2"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Liberation Sans1"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.000000"/>
+      <b val="true"/>
+      <sz val="12"/>
       <name val="Liberation Sans1"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.000000"/>
+      <b val="true"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="8"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1178,67 +1223,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.049989318521683403"/>
-        <bgColor theme="1" tint="0.049989318521683403"/>
+        <fgColor theme="1" tint="0.0499"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFAFABAB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
-        <bgColor indexed="53"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFA9D18E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
-        <bgColor indexed="23"/>
+        <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1246,387 +1291,332 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="6" fillId="5" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="7" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="9" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="23">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0D0D0D"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA9D18E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0C0C0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFAFABAB"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF0D0D0D"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Thème Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1636,39 +1626,35 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1676,64 +1662,37 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1743,7 +1702,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill>
@@ -1751,7 +1709,6 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1759,7 +1716,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1767,154 +1723,157 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C63" activeCellId="0" sqref="C63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.28515625"/>
-    <col customWidth="1" min="2" max="2" width="29.85546875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="37.5703125"/>
-    <col customWidth="1" min="4" max="4" width="14.85546875"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="26.5703125"/>
-    <col customWidth="1" min="8" max="8" width="54.8515625"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="54.85"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1895,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1958,7 +1917,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
@@ -1980,168 +1939,167 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>73</v>
       </c>
@@ -2163,250 +2121,251 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" ht="15">
-      <c r="A19" t="s">
+      <c r="G18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5">
-      <c r="A20" t="s">
+      <c r="G19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
+      <c r="G20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
+      <c r="F23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B24" t="s">
+      <c r="G23" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="G24" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26">
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="F28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>22</v>
@@ -2418,444 +2377,444 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="G31" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B32" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
+      <c r="E32" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B33" t="s">
+      <c r="G32" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
+      <c r="F33" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B34" t="s">
+      <c r="G33" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="G34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="G34" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C35" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="G35" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="G36" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
+      <c r="G37" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="F38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B39" t="s">
+      <c r="G38" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
+      <c r="F39" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B40" t="s">
+      <c r="G39" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="G40" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="G41" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
+      <c r="F42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G42" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="G43" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="G44" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F45" t="s">
-        <v>175</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
+      <c r="F45" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B46" t="s">
+      <c r="G45" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="G46" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
+      <c r="E47" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B48" t="s">
+      <c r="G47" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="G48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="G48" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F49" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
+      <c r="F49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B50" t="s">
+      <c r="G49" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="G50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="G50" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="E51" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
@@ -2863,64 +2822,64 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>211</v>
+      <c r="E55" s="14" t="s">
+        <v>212</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
@@ -2928,128 +2887,128 @@
       </c>
       <c r="H55" s="5"/>
     </row>
-    <row r="56">
-      <c r="A56" s="14" t="s">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F56" s="14" t="s">
+      <c r="E56" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="14" t="s">
+      <c r="F56" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" s="14" t="s">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="C57" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="14" t="s">
+      <c r="E57" s="15"/>
+      <c r="F57" s="15" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="G57" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>71</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8" t="s">
@@ -3058,672 +3017,677 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H61"/>
-  <sortState ref="A2:E50">
-    <sortCondition ref="A2:A50"/>
-  </sortState>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1"/>
+      <c r="B7" s="0" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFFFF2CC"/>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C47" activeCellId="0" sqref="C47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="4" width="6.140625"/>
-    <col customWidth="1" min="2" max="2" style="4" width="20.140625"/>
-    <col customWidth="1" min="3" max="3" style="4" width="71.85546875"/>
-    <col customWidth="1" min="4" max="4" style="4" width="11.42578125"/>
-    <col customWidth="1" min="5" max="5" style="4" width="28.140625"/>
-    <col customWidth="1" min="6" max="6" style="4" width="36.42578125"/>
-    <col customWidth="1" min="7" max="8" style="4" width="11.42578125"/>
-    <col customWidth="1" min="9" max="9" style="4" width="35.140625"/>
-    <col customWidth="1" min="10" max="10" style="4" width="11.42578125"/>
-    <col customWidth="1" min="11" max="11" style="4" width="27.5703125"/>
-    <col min="12" max="1023" style="4" width="10.85546875"/>
-    <col customWidth="1" min="1024" max="1024" style="4" width="8.5703125"/>
-    <col min="1025" max="16384" style="4" width="10.85546875"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="71.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="35.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="27.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="12" style="4" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="4" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="H1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="F1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="I1" s="17"/>
+      <c r="K1" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>243</v>
       </c>
+      <c r="C2" s="19" t="s">
+        <v>244</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K2" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="20">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="K3" s="19" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="20">
+      <c r="K3" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" s="19" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="20">
+      <c r="K4" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K5" s="19" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="20">
+      <c r="K5" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="19" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20">
+      <c r="K6" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7" s="19" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="20">
+      <c r="K7" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K8" s="19" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="20">
+      <c r="K8" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K9" s="19" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20">
+      <c r="K9" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="K10" s="19" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="20">
+      <c r="K10" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K11" s="19" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20">
+      <c r="K11" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="19" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="20">
+      <c r="K12" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K13" s="19" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20">
+      <c r="K13" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="19" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="20">
+      <c r="K14" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="K15" s="19" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20">
+      <c r="K15" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="20">
+        <v>304</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="K17" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="20">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K18" s="19" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="20">
+      <c r="K18" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="K19" s="19" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="20">
+      <c r="K19" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="20">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="20">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="20">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>10</v>
@@ -3732,44 +3696,44 @@
         <v>7</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="20">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="20">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>37</v>
@@ -3778,274 +3742,183 @@
         <v>34</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="20">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="20">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="20">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="20">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="20">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E30" s="21" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20">
+      <c r="E30" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="20">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="n">
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50">
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>